--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -110,7 +110,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Case as on date 20072024</t>
+    <t>Case as on date 21072024</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -583,7 +583,7 @@
       <c r="A2" s="5">
         <v>8607023</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
